--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flofl\OneDrive\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flofl\Library\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AC47D84-C54E-48DC-B9DE-C011B2BBC4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B9B191-EBC4-477C-A86E-A361F66B8073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10164" yWindow="1560" windowWidth="11028" windowHeight="8148" xr2:uid="{31D0BC4A-1DAE-46AE-8BB6-009C07AD47CC}"/>
+    <workbookView xWindow="15288" yWindow="3432" windowWidth="15720" windowHeight="8148" xr2:uid="{31D0BC4A-1DAE-46AE-8BB6-009C07AD47CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>N</t>
   </si>
@@ -76,13 +79,91 @@
   </si>
   <si>
     <t>стр. 45</t>
+  </si>
+  <si>
+    <t>Николай Гоголь</t>
+  </si>
+  <si>
+    <t>Вечера на хуторе близ Диканьки</t>
+  </si>
+  <si>
+    <t>Фёдор Достоевский</t>
+  </si>
+  <si>
+    <t>Преступление и наказание</t>
+  </si>
+  <si>
+    <t>А зори здесь тихие</t>
+  </si>
+  <si>
+    <t>Борис Васильев</t>
+  </si>
+  <si>
+    <t>Записки юного врача(сборник)</t>
+  </si>
+  <si>
+    <t>Михаил Булгаков</t>
+  </si>
+  <si>
+    <t>Мастер и Маргарита</t>
+  </si>
+  <si>
+    <t>Двенадцать стульев</t>
+  </si>
+  <si>
+    <t>Илья Ильф, Евгений Петров</t>
+  </si>
+  <si>
+    <t>Братья Карамазовы</t>
+  </si>
+  <si>
+    <t>Федор Достоевский</t>
+  </si>
+  <si>
+    <t>Повесть о настоящем человек</t>
+  </si>
+  <si>
+    <t>Борис Полевой</t>
+  </si>
+  <si>
+    <t>Морфий (сборник)</t>
+  </si>
+  <si>
+    <t>Судьба человека</t>
+  </si>
+  <si>
+    <t>Михаил Шелохов</t>
+  </si>
+  <si>
+    <t>стр.91</t>
+  </si>
+  <si>
+    <t>стр.12</t>
+  </si>
+  <si>
+    <t>стр.20</t>
+  </si>
+  <si>
+    <t>стр.50</t>
+  </si>
+  <si>
+    <t>стр.87</t>
+  </si>
+  <si>
+    <t>стр.65</t>
+  </si>
+  <si>
+    <t>стр.81</t>
+  </si>
+  <si>
+    <t>стр.72</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +171,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +214,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A872C0D-AA12-4A43-99C9-2307AEFC7035}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,7 +611,179 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44094</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44662</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43981</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43808</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43941</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44458</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43880</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44934</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44468</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{2A872C0D-AA12-4A43-99C9-2307AEFC7035}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flofl\Library\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B9B191-EBC4-477C-A86E-A361F66B8073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE2F023-6430-4603-B82F-AD4370101E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15288" yWindow="3432" windowWidth="15720" windowHeight="8148" xr2:uid="{31D0BC4A-1DAE-46AE-8BB6-009C07AD47CC}"/>
+    <workbookView xWindow="6324" yWindow="4284" windowWidth="15720" windowHeight="8148" xr2:uid="{31D0BC4A-1DAE-46AE-8BB6-009C07AD47CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,12 +188,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -202,20 +217,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A872C0D-AA12-4A43-99C9-2307AEFC7035}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,223 +576,223 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>44492</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>44492</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>45228</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>44094</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>44662</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>44440</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>43981</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>43808</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>43941</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>44458</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>43880</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>44934</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="5">
         <v>44468</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
